--- a/data/hotels_by_city/Houston/Houston_shard_547.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_547.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d8515246-Reviews-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-Springwoods-Village.h11743395.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531617108461&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=4d6e107f-d691-48a7-925d-ae14ef3ee41b&amp;mctc=9&amp;exp_dp=142&amp;exp_ts=1531617108990&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,467 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r555727020-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>8515246</t>
+  </si>
+  <si>
+    <t>555727020</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights for a basketball tournament.  The hotel is clean and very nice.  The staff is friendly and very accomodating.  The breakfast is pretty standard and had hot and cold items including eggs, sausage, waffles, fruit, and oatmeal.  Our room was clean and obviously new.  The area is a nice area close to Exxon.  All in all, a great and comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights for a basketball tournament.  The hotel is clean and very nice.  The staff is friendly and very accomodating.  The breakfast is pretty standard and had hot and cold items including eggs, sausage, waffles, fruit, and oatmeal.  Our room was clean and obviously new.  The area is a nice area close to Exxon.  All in all, a great and comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r548458314-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>548458314</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent Deal</t>
+  </si>
+  <si>
+    <t>This hotel provides the BEST value my family has ever seen while traveling with my husband for work. The hotel is in excellent condition and the rooms are quiet - you wouldn't know there were other guests on your floor. The televisions offer access to your Netflix/Hulu accounts for easy viewing which we found an added attractive amenity for our children and there is an HEB not far down the road for groceries to fill the kitchen. The only thing I would note is that the staff for both food options were a bit standoffish, although the food quality itself was great and there were good options. If mt husband is sent to Spring again, this is the hotel we'll be headed to!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>This hotel provides the BEST value my family has ever seen while traveling with my husband for work. The hotel is in excellent condition and the rooms are quiet - you wouldn't know there were other guests on your floor. The televisions offer access to your Netflix/Hulu accounts for easy viewing which we found an added attractive amenity for our children and there is an HEB not far down the road for groceries to fill the kitchen. The only thing I would note is that the staff for both food options were a bit standoffish, although the food quality itself was great and there were good options. If mt husband is sent to Spring again, this is the hotel we'll be headed to!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r537268077-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>537268077</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Un holandés en Houston</t>
+  </si>
+  <si>
+    <t>Nice place, very large rooms for a single traveller like me, 2 double beds. Nice kitchen and living area. Really a luxurous place. Very close to the airport and very clean. Outside bbq place and a swimming pool. Breakfast fine. All together a place to remember.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Nice place, very large rooms for a single traveller like me, 2 double beds. Nice kitchen and living area. Really a luxurous place. Very close to the airport and very clean. Outside bbq place and a swimming pool. Breakfast fine. All together a place to remember.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r505259555-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>505259555</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn is Great!</t>
+  </si>
+  <si>
+    <t>The Residence Inn on Holzwarth in Spring is terrific.  Big rooms - very comfortable with great bath.  The shower has the controls on the opposite wall to the shower head - love this.  There is a fridge, microwave and coffee pot in the kitchenette.  Staff is friendly and it's very convenient to the ExxonMobil campus. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The Residence Inn on Holzwarth in Spring is terrific.  Big rooms - very comfortable with great bath.  The shower has the controls on the opposite wall to the shower head - love this.  There is a fridge, microwave and coffee pot in the kitchenette.  Staff is friendly and it's very convenient to the ExxonMobil campus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r502874962-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>502874962</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>New and Roomy..What's with all the barking?</t>
+  </si>
+  <si>
+    <t>Hotel itself is great. It is clean and very comfortable. The rooms are very spacious with kitchenettes, full size fridge, etc... The breakfast is standard and the evening socials (Mon-Wed Only) are below par in my opinion but a nice touch although other type hotels can beat it.I know this is not the hotels issue but we had three separate issues with dogs. One was a very large dog in the room below us that barked for at least 2 hours pretty much straight while I was trying to rest in the late afternoon, another I met in the hall that wanted to eat me alive and again another right next door started barking at  I just don't get it!   Very hard to get rest 2:00 a.m. for about 30 minutes. I love animals but when paying over $125 per night I expect to be able to sleep. Sorry!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Hotel itself is great. It is clean and very comfortable. The rooms are very spacious with kitchenettes, full size fridge, etc... The breakfast is standard and the evening socials (Mon-Wed Only) are below par in my opinion but a nice touch although other type hotels can beat it.I know this is not the hotels issue but we had three separate issues with dogs. One was a very large dog in the room below us that barked for at least 2 hours pretty much straight while I was trying to rest in the late afternoon, another I met in the hall that wanted to eat me alive and again another right next door started barking at  I just don't get it!   Very hard to get rest 2:00 a.m. for about 30 minutes. I love animals but when paying over $125 per night I expect to be able to sleep. Sorry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r488749374-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>488749374</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Modern and clean rooms</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights with family. The rooms were new, modern, and very clean. We had a suite with a small kitchen as well so it was nice to have the extra space. Good breakfast in the morning with lots of options. Great hotel value. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights with family. The rooms were new, modern, and very clean. We had a suite with a small kitchen as well so it was nice to have the extra space. Good breakfast in the morning with lots of options. Great hotel value. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r466577737-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>466577737</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Up to Marriott Standards</t>
+  </si>
+  <si>
+    <t>Only stayed here for one night, but definitely one of the better Marriott's I've stayed in.  Relatively new hotel, with modern furniture and amenities.  Flight landed early (miracle!), so I arrived at hotel quite early not expecting to be able to check-in.  However, Will at the front desk was super nice and accommodating, and only asked me to wait 5 minutes while he had maid double-check the suite to make sure everything was ready.  I needed a quiet spot to conduct a bunch of interviews and Will directed me to back corner area of breakfast eating area, and he made sure televisions were turned down so I had some quiet.  Room was large, clean, and showers had excellent water pressure.  Only one television, but it was on a stand that rotated 270 degrees, so you always had a good viewing angle from either living room couch or the bed.  Gas station within walking distance had many snacks, drinks available if you had a late night craving.  Wasn't there for Monday-Wednesday complimentary evening light dinners, but breakfast items were fresh, plentiful, and more than adequate.  Would definitely stay here again if I was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Only stayed here for one night, but definitely one of the better Marriott's I've stayed in.  Relatively new hotel, with modern furniture and amenities.  Flight landed early (miracle!), so I arrived at hotel quite early not expecting to be able to check-in.  However, Will at the front desk was super nice and accommodating, and only asked me to wait 5 minutes while he had maid double-check the suite to make sure everything was ready.  I needed a quiet spot to conduct a bunch of interviews and Will directed me to back corner area of breakfast eating area, and he made sure televisions were turned down so I had some quiet.  Room was large, clean, and showers had excellent water pressure.  Only one television, but it was on a stand that rotated 270 degrees, so you always had a good viewing angle from either living room couch or the bed.  Gas station within walking distance had many snacks, drinks available if you had a late night craving.  Wasn't there for Monday-Wednesday complimentary evening light dinners, but breakfast items were fresh, plentiful, and more than adequate.  Would definitely stay here again if I was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r459906540-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>459906540</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Long Business Trip</t>
+  </si>
+  <si>
+    <t>This is quite a nice place to spend a 3-month assignment. I have a room with a full kitchen, separate bedroom, and very workable living space. There are TVs in both the living room and bedroom. Free wifi. Free hot breakfast daily (eggs, sausage, grits, various breads, oatmeal, etc) and free light dinner served 3 nights a week. Front desk staff is attentive, capable, and friendly. Cleaning crew was a bit hit or miss, not always refilling coffee or other amenities but spot on other times. Quiet area, car required. Good restaurants within a short drive. Had grill and fire pit where guests gather. Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is quite a nice place to spend a 3-month assignment. I have a room with a full kitchen, separate bedroom, and very workable living space. There are TVs in both the living room and bedroom. Free wifi. Free hot breakfast daily (eggs, sausage, grits, various breads, oatmeal, etc) and free light dinner served 3 nights a week. Front desk staff is attentive, capable, and friendly. Cleaning crew was a bit hit or miss, not always refilling coffee or other amenities but spot on other times. Quiet area, car required. Good restaurants within a short drive. Had grill and fire pit where guests gather. Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r446811186-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>446811186</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>Serious about great customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These folks have the right idea.  Drinks and snacks and dip in the lobby on the house.  Breakfast with waffles complementary. Nice suites. Convenient location. Earned high praise from this family. Definitely planning to book future reservations at Residence Inn by Marriott properties. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r413316319-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>413316319</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Returned to our old neighborhood for a wedding, but our old neighborhood has no hotel/motel in a proximate location. This is a new house near the new Exxon campus and is located at the confluence of I45, Hardy toll and the new Grand Parkway, which gave us a three-minute drive to our venue. One bedroom suite at $146 per night all-in which is a good value. New, clean, quiet, comfortable and has all the amenities for current business travelers. Complimentary breakfast is so much better than the HI Express and others - great dark roast coffee and good food selection. Lightning storm took out the elevators, TV and fire alarms on our second day there. All except the TV was repaired promptly. Nikki, our manager, was very accommodating and professional, offering compensation for the minor inconveniences. Great value and we will book RI in the future, as opposed to HI, Hampton or other comparable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Returned to our old neighborhood for a wedding, but our old neighborhood has no hotel/motel in a proximate location. This is a new house near the new Exxon campus and is located at the confluence of I45, Hardy toll and the new Grand Parkway, which gave us a three-minute drive to our venue. One bedroom suite at $146 per night all-in which is a good value. New, clean, quiet, comfortable and has all the amenities for current business travelers. Complimentary breakfast is so much better than the HI Express and others - great dark roast coffee and good food selection. Lightning storm took out the elevators, TV and fire alarms on our second day there. All except the TV was repaired promptly. Nikki, our manager, was very accommodating and professional, offering compensation for the minor inconveniences. Great value and we will book RI in the future, as opposed to HI, Hampton or other comparable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r411212338-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>411212338</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>In the middle of no where...  with a worst of the industry feature</t>
+  </si>
+  <si>
+    <t>I review for the extended traveler, the 30 to 90 day person,    the one and two night stands always fall in love with the all you can eat waffles and scramble eggs.
+A rating ---   superb Marriott beds and pillows and comfort and a the housekeeping staff that keeps the room clean,  this property has a few rooms with two beds in them,  rare for a RI,   largest modern laundry room I seen at RI,  over 10+ machines, no waiting.
+B rating ---   Professional staff that has the standard Marriott smiles and answers,  however they are shared with the Courtyard next store... not good.   If you really need help, work with the night clerk,  Misha,  she is a A+,  they should clone her!
+C rating  ---  "Free Breakfast"    nothing special here,  right off the Marriott menu wagon,   no milk in cartons,  no flavored coffee creamers, but great coffee cake.  All served with an attitude.   You get to guess the type of attitude.   Typical RI exercise room, pool, and outdoor seating area.
+D rating  ---   HVAC,  it is horrible,  it works, it keeps the room cold,  but it is so loud you cant count any sheep.  Yes, it blows and it blows and it blows.  No oven in the kitchen and a fridge without an ice maker.   Ice makers are located on each floor.  Poor noise abatement,  you can hear the folks above you.
+F rating  ---   the MIX,  I think...I review for the extended traveler, the 30 to 90 day person,    the one and two night stands always fall in love with the all you can eat waffles and scramble eggs.A rating ---   superb Marriott beds and pillows and comfort and a the housekeeping staff that keeps the room clean,  this property has a few rooms with two beds in them,  rare for a RI,   largest modern laundry room I seen at RI,  over 10+ machines, no waiting.B rating ---   Professional staff that has the standard Marriott smiles and answers,  however they are shared with the Courtyard next store... not good.   If you really need help, work with the night clerk,  Misha,  she is a A+,  they should clone her!C rating  ---  "Free Breakfast"    nothing special here,  right off the Marriott menu wagon,   no milk in cartons,  no flavored coffee creamers, but great coffee cake.  All served with an attitude.   You get to guess the type of attitude.   Typical RI exercise room, pool, and outdoor seating area.D rating  ---   HVAC,  it is horrible,  it works, it keeps the room cold,  but it is so loud you cant count any sheep.  Yes, it blows and it blows and it blows.  No oven in the kitchen and a fridge without an ice maker.   Ice makers are located on each floor.  Poor noise abatement,  you can hear the folks above you.F rating  ---   the MIX,  I think it is a corporate problem... but the evening MIX must have been designed by Mr. Hilton or Mrs. Holiday.   It is driving my co-workers from Marriott.  It is a joke.  No meal here anymore,  a weak dessert night,  a piece of chicken or burger night, and a night where they allow you to buy your "Free MIX meal" from a local food truck, NOT FREE  and you are getting this for higher cost of a RI room.  Even those folks who do not stay at a RI on M, T, or W.   NIX the MIX!   Proof if you give folks beer and wine, they smile all night.Now the worst of the industry goes to this RI...  a remote control system for the TV with NO buttons to change channels..  You have to run up and down the channels searching.   It also starts with a super loud RI promo video that even the HVAC can not drown out.   At the end of my TX visit I stayed at newer RI and it did not have this system.     There are 3 RI in this general north I45 area,  this one is in the middle of no where and it is here to service the Exxon Mobil campus near by.      But it is a Marriott and if I did not get my rewards points,   I would stay with Mr. Hilton or Mrs. Holiday.Overpriced for the returns.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I review for the extended traveler, the 30 to 90 day person,    the one and two night stands always fall in love with the all you can eat waffles and scramble eggs.
+A rating ---   superb Marriott beds and pillows and comfort and a the housekeeping staff that keeps the room clean,  this property has a few rooms with two beds in them,  rare for a RI,   largest modern laundry room I seen at RI,  over 10+ machines, no waiting.
+B rating ---   Professional staff that has the standard Marriott smiles and answers,  however they are shared with the Courtyard next store... not good.   If you really need help, work with the night clerk,  Misha,  she is a A+,  they should clone her!
+C rating  ---  "Free Breakfast"    nothing special here,  right off the Marriott menu wagon,   no milk in cartons,  no flavored coffee creamers, but great coffee cake.  All served with an attitude.   You get to guess the type of attitude.   Typical RI exercise room, pool, and outdoor seating area.
+D rating  ---   HVAC,  it is horrible,  it works, it keeps the room cold,  but it is so loud you cant count any sheep.  Yes, it blows and it blows and it blows.  No oven in the kitchen and a fridge without an ice maker.   Ice makers are located on each floor.  Poor noise abatement,  you can hear the folks above you.
+F rating  ---   the MIX,  I think...I review for the extended traveler, the 30 to 90 day person,    the one and two night stands always fall in love with the all you can eat waffles and scramble eggs.A rating ---   superb Marriott beds and pillows and comfort and a the housekeeping staff that keeps the room clean,  this property has a few rooms with two beds in them,  rare for a RI,   largest modern laundry room I seen at RI,  over 10+ machines, no waiting.B rating ---   Professional staff that has the standard Marriott smiles and answers,  however they are shared with the Courtyard next store... not good.   If you really need help, work with the night clerk,  Misha,  she is a A+,  they should clone her!C rating  ---  "Free Breakfast"    nothing special here,  right off the Marriott menu wagon,   no milk in cartons,  no flavored coffee creamers, but great coffee cake.  All served with an attitude.   You get to guess the type of attitude.   Typical RI exercise room, pool, and outdoor seating area.D rating  ---   HVAC,  it is horrible,  it works, it keeps the room cold,  but it is so loud you cant count any sheep.  Yes, it blows and it blows and it blows.  No oven in the kitchen and a fridge without an ice maker.   Ice makers are located on each floor.  Poor noise abatement,  you can hear the folks above you.F rating  ---   the MIX,  I think it is a corporate problem... but the evening MIX must have been designed by Mr. Hilton or Mrs. Holiday.   It is driving my co-workers from Marriott.  It is a joke.  No meal here anymore,  a weak dessert night,  a piece of chicken or burger night, and a night where they allow you to buy your "Free MIX meal" from a local food truck, NOT FREE  and you are getting this for higher cost of a RI room.  Even those folks who do not stay at a RI on M, T, or W.   NIX the MIX!   Proof if you give folks beer and wine, they smile all night.Now the worst of the industry goes to this RI...  a remote control system for the TV with NO buttons to change channels..  You have to run up and down the channels searching.   It also starts with a super loud RI promo video that even the HVAC can not drown out.   At the end of my TX visit I stayed at newer RI and it did not have this system.     There are 3 RI in this general north I45 area,  this one is in the middle of no where and it is here to service the Exxon Mobil campus near by.      But it is a Marriott and if I did not get my rewards points,   I would stay with Mr. Hilton or Mrs. Holiday.Overpriced for the returns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r387112166-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>387112166</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Great overnight spot</t>
+  </si>
+  <si>
+    <t>We stayed here for a concert at Cynthia Woods Mitchell Pavillion it was about 4 miles to drive.  Very clean.  Brand new!  Staff was very nice. Kitchens had everything you need.  Pool looked great.  Fire pit was nice.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r381889173-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>381889173</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>NIce place that is marginally managed</t>
+  </si>
+  <si>
+    <t>The property is almost new, nicely appointed which we appreciated.  We were in town for a funeral,all of us exhausted from driving nine hours.I asked the desk clerk around 9:30  p.m. for a late checkout (30 minutes)  She said that would be no problem.  SHE NEVER NOTED MY ROOM OF THIS FACT.Fast forward to 12:05 pm and the damned maid was outside my door knocking with a "DO NOT DISTURB" sign.  THEN the damned front desk called interrupting me a SECOND time, while we all are trying to get ready.  I explained that the front desk said it would be ok and I asked why they didn't do their jobs....Regardless of how nice a property it is,that cannot protect you from STUPID.  Never staying there again.  It has to be the whole package...nice place with well trained people.MoreShow less</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>The property is almost new, nicely appointed which we appreciated.  We were in town for a funeral,all of us exhausted from driving nine hours.I asked the desk clerk around 9:30  p.m. for a late checkout (30 minutes)  She said that would be no problem.  SHE NEVER NOTED MY ROOM OF THIS FACT.Fast forward to 12:05 pm and the damned maid was outside my door knocking with a "DO NOT DISTURB" sign.  THEN the damned front desk called interrupting me a SECOND time, while we all are trying to get ready.  I explained that the front desk said it would be ok and I asked why they didn't do their jobs....Regardless of how nice a property it is,that cannot protect you from STUPID.  Never staying there again.  It has to be the whole package...nice place with well trained people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r369127772-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>369127772</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Great extended stay visit</t>
+  </si>
+  <si>
+    <t>Recently stayed at this new location for nearly a month with a few other colleagues. We all wish we had found this hotel earlier into our lengthy business trip to the Houston area. The staff of each department was amazing and truly made us feel at home. No major issues encountered that would ever prevent me from staying here if I visited the area again. The area is up and coming which is a nice change for the busy Houston suburbs. It's quietly tucked in the woods away from major roads.
+The only things I could offer to improve is that the business center is very minimal. Literally just a computer in the main lobby on the other side of a wall. The workout room is quite small but it has enough equipment to get a decent workout in. It was also a bummer that it cost $3 to do a load of laundry. ($1.50 to wash and $1.50 to dry). 
+The TV's in the room are high quality except for a few annoying quirks. Each of our TV's had an absolute horrible auto-dim feature that you couldn't disable because you aren't provided with the actual remote, you are given a specialty hotel modified remote. This would randomly make the TV extremely dark and then bright, over and over again. Sometimes we would be squinting just to see what we were watching. This remote also prevents you from being able...Recently stayed at this new location for nearly a month with a few other colleagues. We all wish we had found this hotel earlier into our lengthy business trip to the Houston area. The staff of each department was amazing and truly made us feel at home. No major issues encountered that would ever prevent me from staying here if I visited the area again. The area is up and coming which is a nice change for the busy Houston suburbs. It's quietly tucked in the woods away from major roads.The only things I could offer to improve is that the business center is very minimal. Literally just a computer in the main lobby on the other side of a wall. The workout room is quite small but it has enough equipment to get a decent workout in. It was also a bummer that it cost $3 to do a load of laundry. ($1.50 to wash and $1.50 to dry). The TV's in the room are high quality except for a few annoying quirks. Each of our TV's had an absolute horrible auto-dim feature that you couldn't disable because you aren't provided with the actual remote, you are given a specialty hotel modified remote. This would randomly make the TV extremely dark and then bright, over and over again. Sometimes we would be squinting just to see what we were watching. This remote also prevents you from being able to use a sleep timer, which is somewhat frustrating when you enjoy falling asleep with the TV on. The last issue I encountered was with the Internet support number that is provided. While they attempted to help me with my problems of using a PlayStation 4, they simply wouldn't admit that they had extremely tight firewalls/restrictions that would prevent the PS4 from allowing multiple games to connect to the Internet. After calling nearly everyday for an update, they continued to keep pointing the blame in a different direction, even though I'm now home and it all works fine, which means it was on their end.Like I stated, nothing major that would prevent me from staying here again. Just a few small issues that could easily be fixed for this gorgeous new location. I miss this staff already!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Recently stayed at this new location for nearly a month with a few other colleagues. We all wish we had found this hotel earlier into our lengthy business trip to the Houston area. The staff of each department was amazing and truly made us feel at home. No major issues encountered that would ever prevent me from staying here if I visited the area again. The area is up and coming which is a nice change for the busy Houston suburbs. It's quietly tucked in the woods away from major roads.
+The only things I could offer to improve is that the business center is very minimal. Literally just a computer in the main lobby on the other side of a wall. The workout room is quite small but it has enough equipment to get a decent workout in. It was also a bummer that it cost $3 to do a load of laundry. ($1.50 to wash and $1.50 to dry). 
+The TV's in the room are high quality except for a few annoying quirks. Each of our TV's had an absolute horrible auto-dim feature that you couldn't disable because you aren't provided with the actual remote, you are given a specialty hotel modified remote. This would randomly make the TV extremely dark and then bright, over and over again. Sometimes we would be squinting just to see what we were watching. This remote also prevents you from being able...Recently stayed at this new location for nearly a month with a few other colleagues. We all wish we had found this hotel earlier into our lengthy business trip to the Houston area. The staff of each department was amazing and truly made us feel at home. No major issues encountered that would ever prevent me from staying here if I visited the area again. The area is up and coming which is a nice change for the busy Houston suburbs. It's quietly tucked in the woods away from major roads.The only things I could offer to improve is that the business center is very minimal. Literally just a computer in the main lobby on the other side of a wall. The workout room is quite small but it has enough equipment to get a decent workout in. It was also a bummer that it cost $3 to do a load of laundry. ($1.50 to wash and $1.50 to dry). The TV's in the room are high quality except for a few annoying quirks. Each of our TV's had an absolute horrible auto-dim feature that you couldn't disable because you aren't provided with the actual remote, you are given a specialty hotel modified remote. This would randomly make the TV extremely dark and then bright, over and over again. Sometimes we would be squinting just to see what we were watching. This remote also prevents you from being able to use a sleep timer, which is somewhat frustrating when you enjoy falling asleep with the TV on. The last issue I encountered was with the Internet support number that is provided. While they attempted to help me with my problems of using a PlayStation 4, they simply wouldn't admit that they had extremely tight firewalls/restrictions that would prevent the PS4 from allowing multiple games to connect to the Internet. After calling nearly everyday for an update, they continued to keep pointing the blame in a different direction, even though I'm now home and it all works fine, which means it was on their end.Like I stated, nothing major that would prevent me from staying here again. Just a few small issues that could easily be fixed for this gorgeous new location. I miss this staff already!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r363243171-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>363243171</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Very nice place and extremely friendly staff</t>
+  </si>
+  <si>
+    <t>Have stayed here several times for business and  have found that the property and staff consistently offer a great deal.  The property itself is nice and new, the rooms have full kitchens etc that are very nice.  The hotel is vey proximate to I 45 so it is easy to get around.  Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Have stayed here several times for business and  have found that the property and staff consistently offer a great deal.  The property itself is nice and new, the rooms have full kitchens etc that are very nice.  The hotel is vey proximate to I 45 so it is easy to get around.  Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r353849993-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>353849993</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>New, Clean and friendly</t>
+  </si>
+  <si>
+    <t>This hotel did not disappoint!  The entire hotel including the rooms have excellent décor.  The staff was friendly and attentive.  There is a very lovely outside area great for adults and kids alike, including a grill!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>This hotel did not disappoint!  The entire hotel including the rooms have excellent décor.  The staff was friendly and attentive.  There is a very lovely outside area great for adults and kids alike, including a grill!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r351939145-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>351939145</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Exceptional Stay!</t>
+  </si>
+  <si>
+    <t>I travel for work every other week and move from hotel to hotel generally nightly, so I see a LOT of hotels. The Residence Inn there is done extremely well from the workout room having all the equipment to go beyond just the treadmill &amp; elliptical and perfect room temperature, nice touch, the breakfast taking extra care to have special condiments and really well prepared food, the room being well laid out and exceptional décor along with great personable service.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I travel for work every other week and move from hotel to hotel generally nightly, so I see a LOT of hotels. The Residence Inn there is done extremely well from the workout room having all the equipment to go beyond just the treadmill &amp; elliptical and perfect room temperature, nice touch, the breakfast taking extra care to have special condiments and really well prepared food, the room being well laid out and exceptional décor along with great personable service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r344399272-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>344399272</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, eager to help; New and comfortable facility</t>
+  </si>
+  <si>
+    <t>We stayed in a suite with separate bedroom and then a combined living area and kitchen.  The bed was comfortable.  The kitchen was well equipped.  Everything was nice and clean.  The front desk staff were helpful.  Breakfast was good - lots of choices - cereals, fresh fruit, waffles, eggs, meat, yoghurts etc.  The fitness center is small but functional - about 5 machines, free weights etc.The "business services" area is simply a computer and a black and white printer located in the common area.   The weekend room price was reasonable.  Price during the week (from memory) was a little high.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We stayed in a suite with separate bedroom and then a combined living area and kitchen.  The bed was comfortable.  The kitchen was well equipped.  Everything was nice and clean.  The front desk staff were helpful.  Breakfast was good - lots of choices - cereals, fresh fruit, waffles, eggs, meat, yoghurts etc.  The fitness center is small but functional - about 5 machines, free weights etc.The "business services" area is simply a computer and a black and white printer located in the common area.   The weekend room price was reasonable.  Price during the week (from memory) was a little high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r341318284-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>341318284</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Nice/new hotel but overpriced and lacking service</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice but overpriced for a Residence Inn. There was no one at the front desk when I arrived and I had to wait for 10-15 minutes for someone to arrive. For the price you'd think they'd have more than one person working there...MoreShow less</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded January 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2016</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice but overpriced for a Residence Inn. There was no one at the front desk when I arrived and I had to wait for 10-15 minutes for someone to arrive. For the price you'd think they'd have more than one person working there...More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +999,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1031,1262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_547.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r601605862-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>8515246</t>
+  </si>
+  <si>
+    <t>601605862</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>3 week stay</t>
+  </si>
+  <si>
+    <t>Nice hotel and conveniently located next to Exxon’s campus. The rooms are spacious and well appointed. The front desk was always helpful and the food offered was decent. The hotel offered dry cleaning and there is a CVS within walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel and conveniently located next to Exxon’s campus. The rooms are spacious and well appointed. The front desk was always helpful and the food offered was decent. The hotel offered dry cleaning and there is a CVS within walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r596244874-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>596244874</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Our 1 year Anniversary</t>
+  </si>
+  <si>
+    <t>Great stay friendly staff...u will be pleased with the rooms and how nice they are...free breakfast every morning to start your morning off with...washer and drayer on site...nice area... and yes if I visit spring Texas again this will be my first pick....MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Richard R, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Great stay friendly staff...u will be pleased with the rooms and how nice they are...free breakfast every morning to start your morning off with...washer and drayer on site...nice area... and yes if I visit spring Texas again this will be my first pick....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r555727020-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>8515246</t>
-  </si>
-  <si>
     <t>555727020</t>
   </si>
   <si>
@@ -174,9 +231,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Richard R, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded January 24, 2018</t>
   </si>
   <si>
@@ -225,9 +279,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Richard R, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded November 1, 2017</t>
   </si>
   <si>
@@ -237,6 +288,60 @@
     <t>Nice place, very large rooms for a single traveller like me, 2 double beds. Nice kitchen and living area. Really a luxurous place. Very close to the airport and very clean. Outside bbq place and a swimming pool. Breakfast fine. All together a place to remember.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r529738319-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>529738319</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, modern and comfortable </t>
+  </si>
+  <si>
+    <t>My brother and his family stayed for one month at this property and we got a room for one night to see the family. Everyone in the property seemed to know them and they were so nice to them and to us. He breakfast was far above average of most American hotels at this level. The full kitchen was really useful. And I loved the SmartTVs. Next door to ExxonMobil Campus, so a great choice if that's where you need to go.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>My brother and his family stayed for one month at this property and we got a room for one night to see the family. Everyone in the property seemed to know them and they were so nice to them and to us. He breakfast was far above average of most American hotels at this level. The full kitchen was really useful. And I loved the SmartTVs. Next door to ExxonMobil Campus, so a great choice if that's where you need to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r513853301-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>513853301</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Another New Hidden Spot</t>
+  </si>
+  <si>
+    <t>This area North of Houston is booming, and this is one of the latest additions. Great staff who are proud of their new facility. Super clean with lots of amenities. I got a great rate from booking online at the Marriott website, and nowhere on the web had a better rate.There is a brand new CVS adjacent to the property, and a slew of really good/great restaurants within a 5 - 15 minute drive. This is a new area and you will need a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>This area North of Houston is booming, and this is one of the latest additions. Great staff who are proud of their new facility. Super clean with lots of amenities. I got a great rate from booking online at the Marriott website, and nowhere on the web had a better rate.There is a brand new CVS adjacent to the property, and a slew of really good/great restaurants within a 5 - 15 minute drive. This is a new area and you will need a car.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r505259555-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
@@ -315,6 +420,51 @@
     <t>We stayed here for two nights with family. The rooms were new, modern, and very clean. We had a suite with a small kitchen as well so it was nice to have the extra space. Good breakfast in the morning with lots of options. Great hotel value. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r487794052-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>487794052</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay to take a day trip into Houston without paying higher hotel costs in the city. The staff were friendly, and breakfast was quite good. It is a typical hotel breakfast but all the food was stocked and the eating area was clean. We also got to enjoy the pool, which was perfectly warm thanks to the wonderful Houston-area weather. The only downside is that the hotel is next to a hospital so there would be ambulance sirens going off at all times of the day and night.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay to take a day trip into Houston without paying higher hotel costs in the city. The staff were friendly, and breakfast was quite good. It is a typical hotel breakfast but all the food was stocked and the eating area was clean. We also got to enjoy the pool, which was perfectly warm thanks to the wonderful Houston-area weather. The only downside is that the hotel is next to a hospital so there would be ambulance sirens going off at all times of the day and night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r475021449-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>475021449</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Easy In and Out</t>
+  </si>
+  <si>
+    <t>It is easy to get in and out of the property.  Good location for airport and shopping.  Restaurants not far from the hotel.  Staff was pleasant and knowledgeable about restaurants of the higher quality.  Great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>It is easy to get in and out of the property.  Good location for airport and shopping.  Restaurants not far from the hotel.  Staff was pleasant and knowledgeable about restaurants of the higher quality.  Great place to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r466577737-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
@@ -370,6 +520,45 @@
   </si>
   <si>
     <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r438578632-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>438578632</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Great rooms and friendly staff, but in the middle of nowhere...</t>
+  </si>
+  <si>
+    <t>Still looks brand new. Very large and well appointed rooms, with kitchen and sitting area. Staff is very friendly. Unfortunately I was not aware that this was an apartment style hotel (someone in the office booked it), so I was disappointed that there was no bar or hotel, but really that is my mistake... Breakfast is ok. Would recommend it only if you really need to be in that area, or alternatively don't mind driving a bit to find shops/restaurants.Finally, the area appears very new and satnavs (and taxi drivers) struggle to find it - use google maps!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r425993874-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>425993874</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Beautiful and very clean hotel with a top notch staff</t>
+  </si>
+  <si>
+    <t>Spent a week and found that the hotel and staff was excellent!!  We rented a studio and found that that layout was perfect for our needs.  Everything was extremely clean and very quiet. The location was close to three highways so we were able to get to where we wanted to go quickly.  The kitchen appliances were full size which was perfect.  The laundry room was very large and very clean.  Only $1.50 to wash or dry.  The night time food was good and plentiful.   The staff was extremely helpful and so friendly.  Britney made great recommendations for where to shop, where to eat and things we should see.  Will always greeted us at night and was interested in what we did that day.  Tasha did a wonderful job on making sure there was plenty of food and drinks at night .. When I need a stove (which our unit didnt have) Milly and Britney found one that I could use for two hours!  Cant  ask for a better staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Spent a week and found that the hotel and staff was excellent!!  We rented a studio and found that that layout was perfect for our needs.  Everything was extremely clean and very quiet. The location was close to three highways so we were able to get to where we wanted to go quickly.  The kitchen appliances were full size which was perfect.  The laundry room was very large and very clean.  Only $1.50 to wash or dry.  The night time food was good and plentiful.   The staff was extremely helpful and so friendly.  Britney made great recommendations for where to shop, where to eat and things we should see.  Will always greeted us at night and was interested in what we did that day.  Tasha did a wonderful job on making sure there was plenty of food and drinks at night .. When I need a stove (which our unit didnt have) Milly and Britney found one that I could use for two hours!  Cant  ask for a better staff!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r413316319-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
@@ -439,7 +628,43 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r386161210-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>386161210</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Nice and New</t>
+  </si>
+  <si>
+    <t>In for business.  Then room was nice, clean and new.  Staff was excellent.  Liked the free beer provided during the week and the Food Truck was a great surprise.  Only complaint was that the air-conditioning vent blew directly at the bed.   Definitely will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r385032264-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>385032264</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Brand New Hotel</t>
+  </si>
+  <si>
+    <t>Our family of 6 stayed in a one room suite for 4 nights. Beds were very comfortable and building is new and nice.  Small outside pool with nice seating area was available. The best part of our stay was the breakfast. It wasn't just a continental.  It was a full biscuits and gravy, eggs, waffles, fresh fruit, hashbrowns, bacon, yogurt, cereal and pastries breakfast.  The BEST 'continental' breakfast I've ever had at a hotel.  The only complaint we had was that the wall vent is right above the beds and so the air conditioning blows on your face all night. We stayed with 4 other families and they all had the same problem in their room. We taped a towel over the vent so we could sleep.  Outside of that the hotel is very nice and I would highly recommend it.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Our family of 6 stayed in a one room suite for 4 nights. Beds were very comfortable and building is new and nice.  Small outside pool with nice seating area was available. The best part of our stay was the breakfast. It wasn't just a continental.  It was a full biscuits and gravy, eggs, waffles, fresh fruit, hashbrowns, bacon, yogurt, cereal and pastries breakfast.  The BEST 'continental' breakfast I've ever had at a hotel.  The only complaint we had was that the wall vent is right above the beds and so the air conditioning blows on your face all night. We stayed with 4 other families and they all had the same problem in their room. We taped a towel over the vent so we could sleep.  Outside of that the hotel is very nice and I would highly recommend it.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r381889173-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
@@ -515,6 +740,54 @@
     <t>Have stayed here several times for business and  have found that the property and staff consistently offer a great deal.  The property itself is nice and new, the rooms have full kitchens etc that are very nice.  The hotel is vey proximate to I 45 so it is easy to get around.  Would recommend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r359541206-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>359541206</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>The Best Extended Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 2+ months. It is brand new. The room are nicely sized, the amenities are great. The electric stove, microwave served me well during my entire stay. The rooms are clean and the housekeeping is great. Since Im here since they've open, I manage to witness some water shortage, fire alarm testing etc which is fine - understanding it is very very new. The fitness center is small but they have the essential workout equipment. They provided numbers of washer and dryer in the laundry room.The staff are the sweetest. They are dedicated to make sure you have everything you need during your stay.The location is very near to the ExxonMobil Campus, with a very short drive (5 mins) to the nearest grocery store HEB. Driving to Woodlands took 10 minutes and 20 mins to the Houston Airport. It is located strategically that it took a fairly short time to the nearest town.Definitely will stay here when I'm back in Spring.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed here for 2+ months. It is brand new. The room are nicely sized, the amenities are great. The electric stove, microwave served me well during my entire stay. The rooms are clean and the housekeeping is great. Since Im here since they've open, I manage to witness some water shortage, fire alarm testing etc which is fine - understanding it is very very new. The fitness center is small but they have the essential workout equipment. They provided numbers of washer and dryer in the laundry room.The staff are the sweetest. They are dedicated to make sure you have everything you need during your stay.The location is very near to the ExxonMobil Campus, with a very short drive (5 mins) to the nearest grocery store HEB. Driving to Woodlands took 10 minutes and 20 mins to the Houston Airport. It is located strategically that it took a fairly short time to the nearest town.Definitely will stay here when I'm back in Spring.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r355335447-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>355335447</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Clean comfortable and easy to get to</t>
+  </si>
+  <si>
+    <t>Last minute needed to visit family in woodlands. Weekend special nice price. Helpful front desk  new nice rooms ample space  with work desk lamp and even popcorn. Open space to workout if like. Only shower no hair rinse and no makeup mirror but cannot complain. Quiet enough for me. Recommend highlyMoreShow less</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Last minute needed to visit family in woodlands. Weekend special nice price. Helpful front desk  new nice rooms ample space  with work desk lamp and even popcorn. Open space to workout if like. Only shower no hair rinse and no makeup mirror but cannot complain. Quiet enough for me. Recommend highlyMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r353849993-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
   </si>
   <si>
@@ -530,15 +803,6 @@
     <t>This hotel did not disappoint!  The entire hotel including the rooms have excellent décor.  The staff was friendly and attentive.  There is a very lovely outside area great for adults and kids alike, including a grill!MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>Melanie S, General Manager at Residence Inn Houston Springwoods Village, responded to this reviewResponded March 24, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 24, 2016</t>
-  </si>
-  <si>
     <t>This hotel did not disappoint!  The entire hotel including the rooms have excellent décor.  The staff was friendly and attentive.  There is a very lovely outside area great for adults and kids alike, including a grill!More</t>
   </si>
   <si>
@@ -582,6 +846,42 @@
   </si>
   <si>
     <t>We stayed in a suite with separate bedroom and then a combined living area and kitchen.  The bed was comfortable.  The kitchen was well equipped.  Everything was nice and clean.  The front desk staff were helpful.  Breakfast was good - lots of choices - cereals, fresh fruit, waffles, eggs, meat, yoghurts etc.  The fitness center is small but functional - about 5 machines, free weights etc.The "business services" area is simply a computer and a black and white printer located in the common area.   The weekend room price was reasonable.  Price during the week (from memory) was a little high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r343859036-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>343859036</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>New, practical and very comfortable !</t>
+  </si>
+  <si>
+    <t>The hotel seems new and is designed for extended stays with a well-equipped kitchen, laundry facilities and comfortable suites with a good desk and armchairs to relax or get some work done. The hotel has a heated pool and bbq facilities and organizes some after-office events in the evenings. The hotel has obviously been built with the idea of catering to ExxonMobil visitors (the new campus is a few minutes away) and therefore not located close to anything else, but with a car one can easily get to the Woodlands with its multiple shops and restaurants. Breakfast is simple but good. My only observation would be that housekeeping seemed to quite late in the day and more than once we arrived back from the office to find the rooms still not cleaned. Overall a great option.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel seems new and is designed for extended stays with a well-equipped kitchen, laundry facilities and comfortable suites with a good desk and armchairs to relax or get some work done. The hotel has a heated pool and bbq facilities and organizes some after-office events in the evenings. The hotel has obviously been built with the idea of catering to ExxonMobil visitors (the new campus is a few minutes away) and therefore not located close to anything else, but with a car one can easily get to the Woodlands with its multiple shops and restaurants. Breakfast is simple but good. My only observation would be that housekeeping seemed to quite late in the day and more than once we arrived back from the office to find the rooms still not cleaned. Overall a great option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r343146523-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>343146523</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Great stay near Exxon's campus</t>
+  </si>
+  <si>
+    <t>Very new, clean and with plenty of in-room amenities. Very convenient for long stays (gym, pool, coin laundry, kitchenette). There is nothing walking distance from the hotel, but they host afternoon mini-events like BBQ so you can socialize with other guests.It was silent enough, and beds are very comfortable.It is a bit priceyMoreShow less</t>
+  </si>
+  <si>
+    <t>Very new, clean and with plenty of in-room amenities. Very convenient for long stays (gym, pool, coin laundry, kitchenette). There is nothing walking distance from the hotel, but they host afternoon mini-events like BBQ so you can socialize with other guests.It was silent enough, and beds are very comfortable.It is a bit priceyMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8515246-r341318284-Residence_Inn_Houston_Springwoods_Village-Spring_Texas.html</t>
@@ -1148,18 +1448,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1210,30 +1504,28 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1249,7 +1541,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1258,43 +1550,49 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1310,7 +1608,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1319,43 +1617,45 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
         <v>80</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1371,7 +1671,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1380,38 +1680,32 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1459,13 +1753,13 @@
         <v>94</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
         <v>95</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1520,19 +1814,19 @@
         <v>103</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
         <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1542,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1564,7 +1858,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1573,25 +1867,25 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1603,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1625,7 +1919,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1634,39 +1928,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>113</v>
-      </c>
-      <c r="J10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -1682,7 +1986,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1691,22 +1995,26 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -1716,10 +2024,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -1735,7 +2047,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1744,43 +2056,49 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" t="s">
+        <v>123</v>
+      </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -1796,7 +2114,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1805,34 +2123,34 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1840,10 +2158,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -1859,7 +2181,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1868,49 +2190,47 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
         <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -1926,7 +2246,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1935,25 +2255,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1964,10 +2284,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" t="s">
+        <v>123</v>
+      </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -1983,7 +2307,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1992,25 +2316,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2021,14 +2345,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>158</v>
-      </c>
-      <c r="X16" t="s">
-        <v>159</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -2044,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2053,47 +2373,45 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>167</v>
-      </c>
-      <c r="X17" t="s">
-        <v>168</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
@@ -2109,7 +2427,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2118,32 +2436,32 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2151,14 +2469,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>167</v>
-      </c>
-      <c r="X18" t="s">
-        <v>168</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2174,7 +2488,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2183,49 +2497,35 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>182</v>
-      </c>
-      <c r="O19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>167</v>
-      </c>
-      <c r="X19" t="s">
-        <v>168</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
@@ -2241,7 +2541,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2250,43 +2550,929 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>189</v>
-      </c>
-      <c r="X20" t="s">
-        <v>190</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>199</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s">
+        <v>242</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>233</v>
+      </c>
+      <c r="X27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>242</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>249</v>
+      </c>
+      <c r="X29" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>249</v>
+      </c>
+      <c r="X30" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>249</v>
+      </c>
+      <c r="X31" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>249</v>
+      </c>
+      <c r="X32" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>249</v>
+      </c>
+      <c r="X33" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64067</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>289</v>
+      </c>
+      <c r="X34" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
